--- a/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,45; 3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>4,13; 6,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,35; 6,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,39; 12,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,94; 3,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,46; 8,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,04; 7,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,32; 15,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>1,91; 3,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>5,23; 7,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,22; 6,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>11,23; 14,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,68; 3,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,29; 2,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,76; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,42; 2,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,21; 2,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,24; 2,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,76; 1,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,51; 2,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,61; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,42; 2,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>0,92; 1,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>1,65; 2,64</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,23; 16,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>6,25; 11,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,47; 6,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>5,46; 9,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>6,43; 11,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>5,37; 10,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,16; 7,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,21; 8,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,06; 12,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,53; 10,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,19; 5,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,68; 8,34</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,87%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,41; 4,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,14; 4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,94; 3,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,29; 5,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,57; 3,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,78; 5,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,41; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,47; 6,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,18; 4,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,71; 4,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,34; 3,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>4,21; 5,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,32</t>
+          <t>1,48; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,99</t>
+          <t>4,05; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,22</t>
+          <t>3,39; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,39; 12,66</t>
+          <t>8,35; 12,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,81</t>
+          <t>2,01; 3,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,43</t>
+          <t>4,15; 7,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,86</t>
+          <t>12,42; 16,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 3,22</t>
+          <t>1,9; 3,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,32</t>
+          <t>5,26; 7,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,51</t>
+          <t>4,18; 6,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,23; 14,17</t>
+          <t>11,34; 14,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,16</t>
+          <t>1,61; 3,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,65</t>
+          <t>1,27; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,76</t>
+          <t>0,78; 1,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,96</t>
+          <t>1,4; 2,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,55</t>
+          <t>1,19; 2,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,65</t>
+          <t>1,26; 2,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,91</t>
+          <t>0,75; 1,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,69</t>
+          <t>1,49; 2,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,63</t>
+          <t>1,59; 2,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,36</t>
+          <t>1,41; 2,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,68</t>
+          <t>0,88; 1,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,64</t>
+          <t>1,68; 2,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,45</t>
+          <t>10,01; 16,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,98</t>
+          <t>6,17; 11,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,29</t>
+          <t>2,36; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,67</t>
+          <t>5,39; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 11,42</t>
+          <t>6,21; 11,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,88</t>
+          <t>5,5; 11,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,18</t>
+          <t>3,06; 7,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,36</t>
+          <t>5,25; 8,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 12,92</t>
+          <t>9,08; 13,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,56</t>
+          <t>6,48; 10,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,88</t>
+          <t>3,14; 5,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 8,34</t>
+          <t>5,78; 8,31</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 4,8</t>
+          <t>3,36; 4,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,65</t>
+          <t>3,09; 4,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,09</t>
+          <t>1,96; 3,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,11</t>
+          <t>3,35; 5,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,8</t>
+          <t>2,59; 3,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,18</t>
+          <t>3,8; 5,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,75</t>
+          <t>2,43; 3,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 6,15</t>
+          <t>4,46; 6,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,06</t>
+          <t>3,18; 4,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 4,69</t>
+          <t>3,69; 4,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,2</t>
+          <t>2,33; 3,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 5,48</t>
+          <t>4,15; 5,41</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente una persona con remuneración</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22878</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>52700</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35447</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53289</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>36789</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91342</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>56499</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>106410</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>59668</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>144043</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>91947</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>159699</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15267; 34069</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39440; 68267</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25473; 47353</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>43003; 66873</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26426; 49704</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72975; 110923</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41178; 74237</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>93827; 121149</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44496; 76166</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>121566; 165999</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72861; 112627</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>144045; 179666</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39207</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36528</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25168</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49345</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32076</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24111</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47145</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67405</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>68605</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49280</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>96490</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>27222; 53108</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24954; 50113</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16169; 36399</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32013; 67360</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18838; 40679</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22201; 45818</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14922; 37952</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33213; 61497</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>52009; 85478</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52620; 86212</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>35733; 65678</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76161; 121193</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>70350</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41776</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21542</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46255</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41297</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36282</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>26305</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>43786</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>111648</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78058</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47847</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>90041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55209; 88546</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29670; 56938</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12858; 33610</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34875; 61706</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29537; 54557</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25213; 51133</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16787; 38484</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34653; 55146</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93180; 134319</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60878; 97539</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34318; 64714</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75558; 108586</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>131005</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>82158</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148889</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>106285</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>106916</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>197341</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>238721</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>290705</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189073</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>346230</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>110225; 156128</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105524; 154015</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>66102; 104395</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>115667; 178805</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87566; 128710</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>134918; 188487</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>85865; 129826</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162773; 225027</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>211408; 271328</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>257061; 328754</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>160958; 218364</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>294902; 383958</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>